--- a/WebContent/Templet/2.付款凭证-任务考核表-电子版反馈给综合室-模板.xlsx
+++ b/WebContent/Templet/2.付款凭证-任务考核表-电子版反馈给综合室-模板.xlsx
@@ -330,11 +330,11 @@
   </si>
   <si>
     <t>国际漫游网站与国漫足迹系统维护与新业务开发费</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>全网业务探测运维费用</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>平台资源运维管理系统</t>
@@ -521,10 +521,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,15 +602,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -760,9 +752,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,27 +780,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -826,31 +801,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,7 +840,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,7 +1154,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1197,23 +1175,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:17" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1261,10 +1239,10 @@
       <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1277,17 +1255,17 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="40"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
@@ -1298,17 +1276,17 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="4"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
@@ -1319,17 +1297,17 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="4"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
@@ -1340,17 +1318,17 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="4"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -1361,17 +1339,17 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="4"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
@@ -1382,245 +1360,245 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="4"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="40"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
       <c r="N9" s="4"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="40"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="4"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="40"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
       <c r="N11" s="4"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-    </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1653,532 +1631,532 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="27"/>
-    <col min="2" max="2" width="38.875" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="38.875" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="22"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="29" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="27" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="28" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="25" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="24" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="28" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="28" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="28" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="28" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="28" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="28" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="35"/>
+      <c r="B84" s="28"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="28" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="28" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="28" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="28" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="28" t="s">
         <v>122</v>
       </c>
     </row>
